--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -19,12 +24,11 @@
     <sheet name="Login" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="290">
   <si>
     <t>URL</t>
   </si>
@@ -902,6 +906,9 @@
   </si>
   <si>
     <t>New Task 32</t>
+  </si>
+  <si>
+    <t>Team@123</t>
   </si>
 </sst>
 </file>
@@ -2557,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2589,7 +2596,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3843,7 +3850,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="B6" r:id="rId3"/>
     <hyperlink ref="B7" r:id="rId4"/>
@@ -3869,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3900,7 +3907,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4742,7 +4749,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="admin@123"/>
+    <hyperlink ref="B3" r:id="rId1"/>
     <hyperlink ref="B2" r:id="rId2" display="bhagyesh@tlregtech.com"/>
     <hyperlink ref="B134" r:id="rId3"/>
     <hyperlink ref="B133" r:id="rId4"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -24,6 +19,7 @@
     <sheet name="Login" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J27"/>
 </workbook>
 </file>
 
@@ -1506,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2564,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3877,7 +3873,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,6 @@
     <sheet name="Login" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J27"/>
 </workbook>
 </file>
 
@@ -1502,7 +1506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -4768,8 +4772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4800,7 +4804,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>4</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -5512,7 +5516,7 @@
     <hyperlink ref="B1" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B2" r:id="rId3"/>
-    <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="B3" r:id="rId4" display="admin@123"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/LitigationSheet.xlsx
+++ b/TestData/LitigationSheet.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18144" windowHeight="7836" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Performer" sheetId="1" r:id="rId1"/>
@@ -24,11 +19,12 @@
     <sheet name="Login" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L27"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="291">
   <si>
     <t>URL</t>
   </si>
@@ -637,9 +633,6 @@
   </si>
   <si>
     <t>Automate Test12</t>
-  </si>
-  <si>
-    <t>Automate Test New11</t>
   </si>
   <si>
     <t xml:space="preserve"> deepali@tlregtech.in</t>
@@ -735,180 +728,186 @@
     <t>Service of notice</t>
   </si>
   <si>
-    <t>raj@test.com</t>
-  </si>
-  <si>
-    <t>Jadhav</t>
-  </si>
-  <si>
-    <t>Credit card &amp; Debit cards(CD)</t>
-  </si>
-  <si>
-    <t>New Appearance</t>
-  </si>
-  <si>
     <t xml:space="preserve"> deepalidev1973@gmail.com</t>
   </si>
   <si>
-    <t>Branch office Katraj</t>
-  </si>
-  <si>
-    <t>Prashant Sachan</t>
-  </si>
-  <si>
-    <t>prashant3@vimalagencies.com</t>
-  </si>
-  <si>
-    <t>Non-government organization (NGO)</t>
-  </si>
-  <si>
-    <t>Corporations 11</t>
-  </si>
-  <si>
-    <t>riyansh10@gmail.in</t>
+    <t>admin#123</t>
+  </si>
+  <si>
+    <t>order as on date 18april2023</t>
+  </si>
+  <si>
+    <t>Task as on 26may25</t>
+  </si>
+  <si>
+    <t>Ref-6892025</t>
+  </si>
+  <si>
+    <t>Task as on 25</t>
+  </si>
+  <si>
+    <t>RefNo16</t>
+  </si>
+  <si>
+    <t>Case as on 0704441</t>
+  </si>
+  <si>
+    <t>Case 0953425</t>
+  </si>
+  <si>
+    <t>Task 57</t>
+  </si>
+  <si>
+    <t>New Task 32</t>
+  </si>
+  <si>
+    <t>Team@123</t>
+  </si>
+  <si>
+    <t>Ref no 91182549</t>
+  </si>
+  <si>
+    <t>Task as on  91039</t>
+  </si>
+  <si>
+    <t>RefNo-68014</t>
+  </si>
+  <si>
+    <t>Case No  8119125</t>
+  </si>
+  <si>
+    <t>Case No 78728212</t>
+  </si>
+  <si>
+    <t>Automate Test New12</t>
+  </si>
+  <si>
+    <t>Branch office Vadagav</t>
+  </si>
+  <si>
+    <t>Prashant Pawar</t>
+  </si>
+  <si>
+    <t>prashant4@vimalagencies.com</t>
+  </si>
+  <si>
+    <t>Non-government organization (NG)</t>
+  </si>
+  <si>
+    <t>Corporations 12</t>
+  </si>
+  <si>
+    <t>riyansh11@gmail.in</t>
   </si>
   <si>
     <t xml:space="preserve">
-AMM &amp; Partners</t>
+AMN &amp; Partners</t>
+  </si>
+  <si>
+    <t>raj23@test.com</t>
+  </si>
+  <si>
+    <t>Patil</t>
+  </si>
+  <si>
+    <t>Rakesh</t>
   </si>
   <si>
     <t xml:space="preserve">
- B6B Law Associates</t>
-  </si>
-  <si>
-    <t>patil</t>
-  </si>
-  <si>
-    <t>nehap8@yahoo.com</t>
+ B7B Law Associates</t>
+  </si>
+  <si>
+    <t>Mahure</t>
+  </si>
+  <si>
+    <t>nehap9@yahoo.com</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-Ambrish Patkar</t>
-  </si>
-  <si>
-    <t>Avirat Pawar</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Calcutta  Court</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Kerala  Court
+Ashish Patkar</t>
+  </si>
+  <si>
+    <t>Amrish Pawar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Calcutta High Court</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kerala High Court
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Three APPEAL ORDER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GIFT TAX </t>
-  </si>
-  <si>
-    <t>OL Bank</t>
-  </si>
-  <si>
-    <t>New Customer Parameter</t>
+    <t xml:space="preserve">Four APPEAL ORDER </t>
+  </si>
+  <si>
+    <t>GIFT TAXX</t>
+  </si>
+  <si>
+    <t>OOL Bank</t>
+  </si>
+  <si>
+    <t>Credit card &amp; Debit cards(CCD)</t>
+  </si>
+  <si>
+    <t>New Test Customer Parameter</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-Customer lifetime value (CL)</t>
-  </si>
-  <si>
-    <t>One Appearance</t>
-  </si>
-  <si>
-    <t>Framing  issues</t>
-  </si>
-  <si>
-    <t>PQRS</t>
-  </si>
-  <si>
-    <t>New Proof of ownership</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Presentation </t>
-  </si>
-  <si>
-    <t>admin#123</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Task 2621</t>
-  </si>
-  <si>
-    <t>Ref-7367732</t>
-  </si>
-  <si>
-    <t>New Task 307</t>
-  </si>
-  <si>
-    <t>RefNo-8972</t>
-  </si>
-  <si>
-    <t>Case 6888271</t>
-  </si>
-  <si>
-    <t>No 8994342</t>
-  </si>
-  <si>
-    <t>order as on date 18april2023</t>
-  </si>
-  <si>
-    <t>Notice No 538762476</t>
-  </si>
-  <si>
-    <t>RefNo-825</t>
-  </si>
-  <si>
-    <t>Case No 7811225</t>
-  </si>
-  <si>
-    <t>New Task 9125</t>
-  </si>
-  <si>
-    <t>Task as on  9139</t>
-  </si>
-  <si>
-    <t>RefNo-6814</t>
-  </si>
-  <si>
-    <t>Task Test 9891</t>
-  </si>
-  <si>
-    <t>Task as on 26may25</t>
-  </si>
-  <si>
-    <t>Case No 7872212</t>
-  </si>
-  <si>
-    <t>Case No  819125</t>
-  </si>
-  <si>
-    <t>Ref no 90117549</t>
-  </si>
-  <si>
-    <t>Ref-6892025</t>
-  </si>
-  <si>
-    <t>Task as on 25</t>
-  </si>
-  <si>
-    <t>RefNo16</t>
-  </si>
-  <si>
-    <t>Case as on 0704441</t>
-  </si>
-  <si>
-    <t>Case 0953425</t>
-  </si>
-  <si>
-    <t>Task 57</t>
-  </si>
-  <si>
-    <t>New Task 32</t>
-  </si>
-  <si>
-    <t>Team@123</t>
+Customer lifetime value (CLV)</t>
+  </si>
+  <si>
+    <t>Two Appearance</t>
+  </si>
+  <si>
+    <t>Framing  issue</t>
+  </si>
+  <si>
+    <t>Doc</t>
+  </si>
+  <si>
+    <t>New Test Proof of ownership</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Test Presentation </t>
+  </si>
+  <si>
+    <t>New Test Appearance</t>
+  </si>
+  <si>
+    <t>Ref-7365232</t>
+  </si>
+  <si>
+    <t>New Task 3017</t>
+  </si>
+  <si>
+    <t>RefNo-81972</t>
+  </si>
+  <si>
+    <t>Case 68188271</t>
+  </si>
+  <si>
+    <t>No 8204342</t>
+  </si>
+  <si>
+    <t>Notice No 53876</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Task 21</t>
+  </si>
+  <si>
+    <t>RefNo-75</t>
+  </si>
+  <si>
+    <t>Case No 781612</t>
+  </si>
+  <si>
+    <t>Task Test 97</t>
+  </si>
+  <si>
+    <t>New Task 25</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1506,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1530,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1538,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1646,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1662,7 +1661,7 @@
         <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1885,7 +1884,7 @@
         <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -1967,7 +1966,7 @@
         <v>78</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1999,7 +1998,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="4">
-        <v>8710225</v>
+        <v>871825</v>
       </c>
       <c r="C42" t="s">
         <v>6</v>
@@ -2051,8 +2050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2067,7 +2066,7 @@
         <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -2308,7 +2307,7 @@
         <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="C28" t="s">
         <v>61</v>
@@ -2383,7 +2382,7 @@
         <v>88</v>
       </c>
       <c r="B40">
-        <v>28021125</v>
+        <v>29125</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2466,8 +2465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2482,7 +2481,7 @@
         <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -2565,7 +2564,7 @@
   <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2596,7 +2595,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2638,7 +2637,7 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2654,7 +2653,7 @@
         <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2662,7 +2661,7 @@
         <v>106</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2670,7 +2669,7 @@
         <v>134</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2678,7 +2677,7 @@
         <v>145</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2686,7 +2685,7 @@
         <v>106</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="16" customFormat="1">
@@ -2700,7 +2699,7 @@
         <v>110</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="26.4">
@@ -2708,7 +2707,7 @@
         <v>106</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2748,7 +2747,7 @@
         <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="22" customFormat="1" ht="14.4" customHeight="1">
@@ -2785,7 +2784,7 @@
         <v>106</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2815,7 +2814,7 @@
         <v>115</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2823,7 +2822,7 @@
         <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="16" customFormat="1">
@@ -2836,7 +2835,7 @@
         <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="26.4">
@@ -2844,7 +2843,7 @@
         <v>116</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="16" customFormat="1">
@@ -2857,7 +2856,7 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2865,7 +2864,7 @@
         <v>117</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="16" customFormat="1">
@@ -2878,7 +2877,7 @@
         <v>122</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2886,7 +2885,7 @@
         <v>122</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="16" customFormat="1">
@@ -2899,7 +2898,7 @@
         <v>124</v>
       </c>
       <c r="B46" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.4">
@@ -2907,7 +2906,7 @@
         <v>124</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="16" customFormat="1">
@@ -2920,7 +2919,7 @@
         <v>126</v>
       </c>
       <c r="B49" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2928,7 +2927,7 @@
         <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="16" customFormat="1">
@@ -2941,7 +2940,7 @@
         <v>127</v>
       </c>
       <c r="B52" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2949,7 +2948,7 @@
         <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="18" customFormat="1">
@@ -2962,7 +2961,7 @@
         <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -2970,7 +2969,7 @@
         <v>129</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="18" customFormat="1">
@@ -2983,7 +2982,7 @@
         <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2991,7 +2990,7 @@
         <v>130</v>
       </c>
       <c r="B59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -3025,7 +3024,7 @@
         <v>5</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>282</v>
+        <v>236</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
@@ -3249,7 +3248,7 @@
         <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>283</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s">
         <v>61</v>
@@ -3327,7 +3326,7 @@
         <v>78</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>284</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3360,7 +3359,7 @@
         <v>41</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="C107" t="s">
         <v>6</v>
@@ -3409,7 +3408,7 @@
         <v>42</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="C115" t="s">
         <v>6</v>
@@ -3650,7 +3649,7 @@
         <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="C142" t="s">
         <v>61</v>
@@ -3796,7 +3795,7 @@
         <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="C168" t="s">
         <v>61</v>
@@ -3877,7 +3876,7 @@
   <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3899,7 +3898,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3907,7 +3906,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>289</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3923,7 +3922,7 @@
         <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3991,7 +3990,7 @@
         <v>60</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
@@ -4048,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="C19" t="s">
         <v>61</v>
@@ -4078,7 +4077,7 @@
         <v>78</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4111,7 +4110,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
@@ -4148,7 +4147,7 @@
         <v>42</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
@@ -4289,7 +4288,7 @@
         <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -4302,7 +4301,7 @@
         <v>88</v>
       </c>
       <c r="B54">
-        <v>71525</v>
+        <v>715125</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -4349,7 +4348,7 @@
         <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -4365,7 +4364,7 @@
         <v>105</v>
       </c>
       <c r="B66" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -4373,7 +4372,7 @@
         <v>106</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -4381,7 +4380,7 @@
         <v>134</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -4389,7 +4388,7 @@
         <v>145</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -4397,7 +4396,7 @@
         <v>106</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="16" customFormat="1">
@@ -4411,7 +4410,7 @@
         <v>110</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -4419,7 +4418,7 @@
         <v>106</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -4435,7 +4434,7 @@
         <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -4443,7 +4442,7 @@
         <v>113</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -4459,7 +4458,7 @@
         <v>135</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="16" customFormat="1" ht="14.4" customHeight="1">
@@ -4480,7 +4479,7 @@
         <v>113</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -4496,7 +4495,7 @@
         <v>106</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -4525,7 +4524,7 @@
         <v>115</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -4533,7 +4532,7 @@
         <v>136</v>
       </c>
       <c r="B90" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="16" customFormat="1">
@@ -4546,7 +4545,7 @@
         <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="26.4">
@@ -4554,7 +4553,7 @@
         <v>116</v>
       </c>
       <c r="B95" s="25" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="16" customFormat="1">
@@ -4567,7 +4566,7 @@
         <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -4575,7 +4574,7 @@
         <v>117</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -4594,7 +4593,7 @@
         <v>122</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -4602,7 +4601,7 @@
         <v>122</v>
       </c>
       <c r="B105" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="16" customFormat="1">
@@ -4615,7 +4614,7 @@
         <v>124</v>
       </c>
       <c r="B109" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="26.4">
@@ -4623,7 +4622,7 @@
         <v>124</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="1:2" s="16" customFormat="1">
@@ -4636,7 +4635,7 @@
         <v>126</v>
       </c>
       <c r="B114" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -4644,7 +4643,7 @@
         <v>126</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="16" customFormat="1">
@@ -4657,7 +4656,7 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -4665,7 +4664,7 @@
         <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="18" customFormat="1">
@@ -4678,7 +4677,7 @@
         <v>129</v>
       </c>
       <c r="B124" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -4699,7 +4698,7 @@
         <v>130</v>
       </c>
       <c r="B129" t="s">
-        <v>262</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -4707,7 +4706,7 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -4744,7 +4743,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="B137" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4772,8 +4771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -4804,7 +4803,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4817,7 +4816,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -5035,7 +5034,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="C30" t="s">
         <v>61</v>
@@ -5113,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -5146,7 +5145,7 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C45" t="s">
         <v>6</v>
@@ -5190,7 +5189,7 @@
         <v>42</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
@@ -5442,7 +5441,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>6752025</v>
+        <v>673025</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -5450,7 +5449,7 @@
         <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>270</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:2">
